--- a/data/trans_bre/P15B_3_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P15B_3_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.21628098851306</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-8.865053716709268</v>
+        <v>-8.865053716709264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-1</v>
@@ -649,7 +649,7 @@
         <v>1.119310898326809</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.7623870091229376</v>
+        <v>-0.7623870091229373</v>
       </c>
     </row>
     <row r="5">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-51.9808065938172</v>
+        <v>-56.8532403070046</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.44597717739645</v>
+        <v>-11.18051738813393</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.77552303893793</v>
+        <v>-9.718778459538981</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-33.24982410291658</v>
+        <v>-29.93430692272915</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-7.351659026679274</v>
+        <v>-7.386878986076939</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45.00317159968702</v>
+        <v>42.1317546267715</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34.67334817339621</v>
+        <v>34.4932041964672</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.794630910223334</v>
+        <v>2.794738175725333</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -731,7 +731,7 @@
         <v>-0.5759152311959137</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.314097072525753</v>
+        <v>-0.3140970725257529</v>
       </c>
     </row>
     <row r="8">
@@ -743,13 +743,13 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>-32.40112166959666</v>
+        <v>-35.14076851668487</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-31.1280390697497</v>
+        <v>-29.66736835428341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-18.91992378570308</v>
+        <v>-18.24433344537752</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
@@ -765,13 +765,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>-2.941224064638119</v>
+        <v>-3.038961198416558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.224324111609072</v>
+        <v>5.02798128816218</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.396977997172737</v>
+        <v>9.859681549435034</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-84.37404715314078</v>
+        <v>-83.71766912388982</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-36.47290050087965</v>
+        <v>-34.27510159989416</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-46.61963264401967</v>
+        <v>-47.00245862867324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-34.92266023013701</v>
+        <v>-36.11825775097762</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -848,22 +848,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-45.39939603427032</v>
+        <v>-48.54655052507633</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-12.9857132272812</v>
+        <v>-13.25116159343932</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-14.10036213421538</v>
+        <v>-13.21700377836506</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-3.959606343041514</v>
+        <v>-3.827193482233452</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>0.4965723271346267</v>
+        <v>0.298581003747697</v>
       </c>
     </row>
     <row r="13">
@@ -899,7 +899,7 @@
         <v>-0.4051653380915826</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.4851268273093362</v>
+        <v>-0.4851268273093361</v>
       </c>
     </row>
     <row r="14">
@@ -910,28 +910,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-27.12146952343215</v>
+        <v>-26.31770983137448</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-22.79507874523736</v>
+        <v>-23.71090344839665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-19.38174787400202</v>
+        <v>-19.41655465402391</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-26.85856597309263</v>
+        <v>-25.46799543605213</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6700643431570276</v>
+        <v>-0.666424084210873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8056060551071734</v>
+        <v>-0.8124524128559926</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8649282105586011</v>
+        <v>-0.8462764055661506</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8275547852410967</v>
+        <v>-0.8054994699070736</v>
       </c>
     </row>
     <row r="15">
@@ -942,28 +942,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.61145976224471</v>
+        <v>22.88447968848647</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.931385340371538</v>
+        <v>2.527159910728672</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.913669061952411</v>
+        <v>7.753988008777039</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.409448224576597</v>
+        <v>2.236076917874575</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9019013675746838</v>
+        <v>0.9788782828722356</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1231644218411126</v>
+        <v>0.1727407686785187</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5898584587168374</v>
+        <v>0.9249521336377488</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2091918445115094</v>
+        <v>0.2254457165969527</v>
       </c>
     </row>
     <row r="16">
@@ -1010,26 +1010,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-54.17997041310617</v>
+        <v>-53.15204214438513</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-55.09594056615178</v>
+        <v>-56.87416366912284</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-18.09742955936412</v>
+        <v>-18.79143317282394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-50.6993568811903</v>
+        <v>-48.9235421811388</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7578017440144238</v>
+        <v>-0.759307779533984</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.8836371155594911</v>
+        <v>-0.8651389074054885</v>
       </c>
     </row>
     <row r="18">
@@ -1040,26 +1040,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.496994066684343</v>
+        <v>5.515215482428692</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-21.89863077464066</v>
+        <v>-21.78615051979443</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.47493061969286</v>
+        <v>12.37385495092783</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-7.790746170062031</v>
+        <v>-6.972355045103234</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>-0.6423952132112537</v>
+        <v>-0.6521043756702</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.827867390574078</v>
+        <v>1.686061644008815</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.2935548488543553</v>
+        <v>-0.2728245837515987</v>
       </c>
     </row>
     <row r="19">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>6.784129190570686</v>
+        <v>5.762158942935665</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
@@ -1174,28 +1174,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-32.36730195758145</v>
+        <v>-32.32586149710985</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-22.00324347664232</v>
+        <v>-21.76762502972014</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.2421597157429</v>
+        <v>-13.97156245653256</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-22.60191364453959</v>
+        <v>-23.888081607352</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.8475393665857016</v>
+        <v>-0.8429507103166798</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.8799530673168863</v>
+        <v>-0.8768164352845403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.752890180372373</v>
+        <v>-0.7615222385160381</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.8063522323928677</v>
+        <v>-0.8164157733581553</v>
       </c>
     </row>
     <row r="24">
@@ -1206,28 +1206,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-11.12235751237266</v>
+        <v>-12.06933617043299</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-10.38899760072177</v>
+        <v>-10.29354910615068</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.801715964332646</v>
+        <v>-1.57208998688999</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-8.025175774350259</v>
+        <v>-8.241305259217114</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.3746998156469782</v>
+        <v>-0.4149139642936497</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.53489758475895</v>
+        <v>-0.5472442932295586</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.1077275065103238</v>
+        <v>-0.1239122949333067</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.4334501111227563</v>
+        <v>-0.436726084765383</v>
       </c>
     </row>
     <row r="25">
